--- a/public/files/proveedores-base.xlsx
+++ b/public/files/proveedores-base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\OneDrive\Documentos\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\miregistrodeventas-spa\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,16 +112,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:J2"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Nombre"/>
-    <tableColumn id="2" name="Telefono"/>
-    <tableColumn id="3" name="Direccion"/>
-    <tableColumn id="4" name="Localidad"/>
-    <tableColumn id="5" name="Email"/>
-    <tableColumn id="6" name="Condicion de IVA"/>
-    <tableColumn id="7" name="Razon social"/>
-    <tableColumn id="8" name="Cuit"/>
-    <tableColumn id="9" name="Observaciones"/>
-    <tableColumn id="10" name="Codigo"/>
+    <tableColumn id="1" name="Codigo"/>
+    <tableColumn id="2" name="Nombre"/>
+    <tableColumn id="3" name="Telefono"/>
+    <tableColumn id="4" name="Direccion"/>
+    <tableColumn id="5" name="Localidad"/>
+    <tableColumn id="6" name="Email"/>
+    <tableColumn id="7" name="Condicion de IVA"/>
+    <tableColumn id="8" name="Razon social"/>
+    <tableColumn id="9" name="Cuit"/>
+    <tableColumn id="10" name="Observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -393,7 +393,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,34 +403,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
